--- a/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
+++ b/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6a2e8dd2-8021-4fa6-873d-0f7935337468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3b06fd1f-865e-4879-a1c0-9f58f8c0f6a6}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c027bc20-5e82-4714-9f2a-a94eaf20c82d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d4fb1a0d-75f7-408e-97c8-393f93746b6b}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
+++ b/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3b06fd1f-865e-4879-a1c0-9f58f8c0f6a6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920cfd42-3bdd-4a2f-9bb6-c89c9318c212}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d4fb1a0d-75f7-408e-97c8-393f93746b6b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22f63500-b0cb-49b6-b757-0efc2569cba1}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
+++ b/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920cfd42-3bdd-4a2f-9bb6-c89c9318c212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95783294-df0e-4f0b-91d9-03eb69ba1160}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22f63500-b0cb-49b6-b757-0efc2569cba1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c0ab2c67-d5bb-4435-8bd0-304ceb7e26a1}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
+++ b/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95783294-df0e-4f0b-91d9-03eb69ba1160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4976084d-7365-4eb8-8de7-4d999a840ab2}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c0ab2c67-d5bb-4435-8bd0-304ceb7e26a1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ca735a-1c92-4991-8e10-3b9c08c665b5}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
+++ b/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4976084d-7365-4eb8-8de7-4d999a840ab2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ca3b8cc1-94fc-482e-9e5f-c8d92dcec5c5}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ca735a-1c92-4991-8e10-3b9c08c665b5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16d90b37-9c34-475d-a492-22dffe88b669}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
+++ b/Data_Excel/HP_FQ_0804A_PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ff14313-0941-4781-a660-26a0999bad6b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47428edf-b766-4da2-9027-fe8bd3f66c18}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18bedc28-5b52-4d51-99fa-12497f2ced67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18b6cd98-da42-4272-81b7-e78cd982a5e8}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
